--- a/CN/2_后记.xlsx
+++ b/CN/2_后记.xlsx
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在设计上是想着按过山车难度6，旋转木马难度9，梦幻paradise难度7这样来设计。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最难的机制尽量不要放在最后，不然练习成本太高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不同机制的侧重点：</t>
   </si>
   <si>
@@ -166,6 +158,14 @@
   </si>
   <si>
     <t>Strange Circus ～黒い炎の少女～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最难的机制尽量不要放在最后，不然练习成本太高。玩家负反馈太强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在设计上是想着按过山车难度6，旋转木马难度9，梦幻paradise难度7这样来设计。呈现一种有起有伏的难度曲线。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +304,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -646,40 +646,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -738,32 +738,32 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -772,65 +772,65 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H32" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C40" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -839,17 +839,17 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/CN/2_后记.xlsx
+++ b/CN/2_后记.xlsx
@@ -14,16 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>（暂未询问她本人的意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>致谢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一些设计过程中的想法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,10 +145,6 @@
     <t>葉月ゆら（twitter：@yura_hatuki）</t>
   </si>
   <si>
-    <t>副本内的很多技能名、机制效果、副本整体氛围的灵感都来源于一个我个人很喜欢的歌手：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机制的核心在于“误导”，例如逐渐随眠debuff、缩小旋律</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +158,54 @@
   </si>
   <si>
     <t>在设计上是想着按过山车难度6，旋转木马难度9，梦幻paradise难度7这样来设计。呈现一种有起有伏的难度曲线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考及致谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本内的很多技能名、机制效果，以及副本整体氛围的灵感都来源于一个我很喜欢的歌手：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至于整个战斗流程的节奏设计我觉得其实可以类比一些歌曲的节奏变化：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较有代表性的或者说对我启发比较大的两首歌：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eclipse Parade - 葉月ゆら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Кохання - Lazgi Malika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎明过山车：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的是让玩家通过合理放置传送门，在后面列车突进时呈现一个五角星的形状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门距离过近会爆炸以及各种点名散开都是为了上面这个目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说不定有其他的放置方法也能解？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄昏旋转木马：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻乐园：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,23 +328,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>86139</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133287</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>748749</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>33895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>72887</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>98248</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>207063</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -320,8 +360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8010939" y="4970330"/>
-          <a:ext cx="2425147" cy="3292913"/>
+          <a:off x="9089336" y="8266808"/>
+          <a:ext cx="2431770" cy="2997540"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,7 +677,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -646,40 +686,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -689,167 +729,215 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="3" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D43" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H60" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C61" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H32" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C64" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C39" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C43" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="3" t="s">
-        <v>24</v>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C77" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H78" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/CN/2_后记.xlsx
+++ b/CN/2_后记.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>（暂未询问她本人的意见</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,10 +145,6 @@
     <t>葉月ゆら（twitter：@yura_hatuki）</t>
   </si>
   <si>
-    <t>机制的核心在于“误导”，例如逐渐随眠debuff、缩小旋律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Strange Circus ～黒い炎の少女～</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +202,18 @@
   </si>
   <si>
     <t>梦幻乐园：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝亚历山大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制的核心在于“误导”，例如可以驱散但不能驱散的逐渐睡眠debuff、缩小旋律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后记内容以日文あとがき那一版为主（其实大差不差）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +275,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -295,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -306,6 +321,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -330,21 +346,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>748749</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>33895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>207063</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12106862-07B6-7920-3C61-7F35B3172386}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A2:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -675,278 +691,288 @@
     <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E6" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="3" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D30" s="3" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D31" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D32" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="3" t="s">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="3" t="s">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C42" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D43" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C59" s="3" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C62" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H60" s="3" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C61" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C64" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C67" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C80" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C77" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="3" t="s">
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H81" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H78" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
